--- a/biology/Botanique/Lavandula_multifida/Lavandula_multifida.xlsx
+++ b/biology/Botanique/Lavandula_multifida/Lavandula_multifida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lavandula multifida est une espèce de lavandes[1] proche de la lavande stoéchade (Lavandula stoechas), qui en diffère essentiellement par la forme des feuilles, qui sont découpées, et des épis de fleurs, qui sont nettement plus réduits. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lavandula multifida est une espèce de lavandes proche de la lavande stoéchade (Lavandula stoechas), qui en diffère essentiellement par la forme des feuilles, qui sont découpées, et des épis de fleurs, qui sont nettement plus réduits. 
 L'ensemble de la plante est moins aromatique que la plupart des lavandes.
 Cette espèce pousse dans le sud de la péninsule ibérique, en particulier dans la province de Malaga, en Andalousie. Dans cette région, cette plante est utilisée en décoction comme vermifuge.
 </t>
@@ -513,9 +525,11 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (30 juin 2015)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (30 juin 2015) :
 sous-espèce Lavandula multifida subsp. canariensis (Mill.) Pit. &amp; Proust
 variété Lavandula multifida var. abrotanoides (Lam.) Ball
 variété Lavandula multifida var. canariensis (Mill.) Kuntze
